--- a/E1/Sistema_Ordem_2.xlsx
+++ b/E1/Sistema_Ordem_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Documents\Faculdade\DSP\E1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE72DB54-CD15-443A-B2FA-0E73ED007AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8C29B8-A2BA-4763-839C-CF6F93140524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -4064,7 +4064,7 @@
   <dimension ref="B2:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4072,6 +4072,7 @@
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.88671875" customWidth="1"/>
     <col min="11" max="11" width="17.44140625" customWidth="1"/>
     <col min="12" max="12" width="2.44140625" customWidth="1"/>
